--- a/mesothelioma_dataset.xlsx
+++ b/mesothelioma_dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romanelgff/Documents/Master/M2/S1/R1/ML/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FT\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3555B181-3DA0-4F42-9A30-53F558C0ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5982" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5982" uniqueCount="823">
   <si>
     <t>1.0</t>
   </si>
@@ -2436,6 +2435,9 @@
     <t>C-reactive protein (CRP)</t>
   </si>
   <si>
+    <t>class of diagnosis</t>
+  </si>
+  <si>
     <t>keep side</t>
   </si>
   <si>
@@ -2488,90 +2490,12 @@
   </si>
   <si>
     <t>class of diagnosis (1:Healthy, 2: Mesothelioma)</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t>CRP</t>
-  </si>
-  <si>
-    <t>pleuralPh</t>
-  </si>
-  <si>
-    <t>pleural_tomography</t>
-  </si>
-  <si>
-    <t>pleural_effusion</t>
-  </si>
-  <si>
-    <t>pleural_glucose</t>
-  </si>
-  <si>
-    <t>pleural_albumin</t>
-  </si>
-  <si>
-    <t>pleural_protein</t>
-  </si>
-  <si>
-    <t>pleural_dehydrogenise</t>
-  </si>
-  <si>
-    <t>total_protein</t>
-  </si>
-  <si>
-    <t>ALP</t>
-  </si>
-  <si>
-    <t>LDH</t>
-  </si>
-  <si>
-    <t>PLT</t>
-  </si>
-  <si>
-    <t>HGB</t>
-  </si>
-  <si>
-    <t>WBC</t>
-  </si>
-  <si>
-    <t>white_blood</t>
-  </si>
-  <si>
-    <t>perf_status</t>
-  </si>
-  <si>
-    <t>cigarette</t>
-  </si>
-  <si>
-    <t>chest_ache</t>
-  </si>
-  <si>
-    <t>symptoms_dur</t>
-  </si>
-  <si>
-    <t>keep_side</t>
-  </si>
-  <si>
-    <t>diag_method</t>
-  </si>
-  <si>
-    <t>asbestos_exp_dur</t>
-  </si>
-  <si>
-    <t>MM_type</t>
-  </si>
-  <si>
-    <t>asbestos_exp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3653,49 +3577,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo3" displayName="Tablo3" ref="A1:AG325" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="A1:AG325" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tablo3" displayName="Tablo3" ref="A1:AG325" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="A1:AG325"/>
   <tableColumns count="33">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="age" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="gender" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="city" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="asbestos_exp" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="MM_type" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="asbestos_exp_dur" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="diag_method" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="keep_side" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="cytology" dataDxfId="24"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="symptoms_dur" dataDxfId="23"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="dyspnoea" dataDxfId="22"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="chest_ache" dataDxfId="21"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="weakness" dataDxfId="20"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="cigarette" dataDxfId="19"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="perf_status" dataDxfId="18"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="white_blood" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="WBC" dataDxfId="16"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="HGB" dataDxfId="15"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="PLT" dataDxfId="14"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="sedimentation" dataDxfId="13"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="LDH" dataDxfId="12"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="ALP" dataDxfId="11"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="total_protein" dataDxfId="10"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="albumin" dataDxfId="9"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="glucose" dataDxfId="8"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="pleural_dehydrogenise" dataDxfId="7"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="pleural_protein" dataDxfId="6"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="pleural_albumin" dataDxfId="5"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="pleural_glucose" dataDxfId="4"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="dead" dataDxfId="3"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="pleural_effusion" dataDxfId="2"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="pleural_tomography" dataDxfId="1"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="pleuralPh" dataDxfId="0"/>
+    <tableColumn id="3" name="age" dataDxfId="32"/>
+    <tableColumn id="5" name="gender" dataDxfId="31"/>
+    <tableColumn id="6" name="city" dataDxfId="30"/>
+    <tableColumn id="7" name="asbestos exposure" dataDxfId="29"/>
+    <tableColumn id="8" name="type of MM" dataDxfId="28"/>
+    <tableColumn id="9" name="duration of asbestos exposure" dataDxfId="27"/>
+    <tableColumn id="11" name="diagnosis method" dataDxfId="26"/>
+    <tableColumn id="13" name="keep side" dataDxfId="25"/>
+    <tableColumn id="16" name="cytology" dataDxfId="24"/>
+    <tableColumn id="17" name="duration of symptoms" dataDxfId="23"/>
+    <tableColumn id="19" name="dyspnoea" dataDxfId="22"/>
+    <tableColumn id="20" name="ache on chest" dataDxfId="21"/>
+    <tableColumn id="21" name="weakness" dataDxfId="20"/>
+    <tableColumn id="23" name="habit of cigarette" dataDxfId="19"/>
+    <tableColumn id="24" name="performance status" dataDxfId="18"/>
+    <tableColumn id="26" name="white blood" dataDxfId="17"/>
+    <tableColumn id="1" name="cell count (WBC)" dataDxfId="16"/>
+    <tableColumn id="28" name="hemoglobin (HGB)" dataDxfId="15"/>
+    <tableColumn id="29" name="platelet count (PLT)" dataDxfId="14"/>
+    <tableColumn id="31" name="sedimentation" dataDxfId="13"/>
+    <tableColumn id="32" name="blood lactic dehydrogenise (LDH)" dataDxfId="12"/>
+    <tableColumn id="34" name="alkaline phosphatise (ALP)" dataDxfId="11"/>
+    <tableColumn id="36" name="total protein" dataDxfId="10"/>
+    <tableColumn id="37" name="albumin" dataDxfId="9"/>
+    <tableColumn id="38" name="glucose" dataDxfId="8"/>
+    <tableColumn id="39" name="pleural lactic dehydrogenise" dataDxfId="7"/>
+    <tableColumn id="41" name="pleural protein" dataDxfId="6"/>
+    <tableColumn id="42" name="pleural albumin" dataDxfId="5"/>
+    <tableColumn id="43" name="pleural glucose" dataDxfId="4"/>
+    <tableColumn id="45" name="dead or not" dataDxfId="3"/>
+    <tableColumn id="49" name="pleural effusion" dataDxfId="2"/>
+    <tableColumn id="52" name="pleural thickness on tomography" dataDxfId="1"/>
+    <tableColumn id="53" name="pleural level of acidity (pH)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3770,23 +3694,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3822,23 +3729,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4014,51 +3904,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="10" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="12" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="11" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="6" customWidth="1"/>
     <col min="18" max="18" width="13" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.5" style="6" customWidth="1"/>
-    <col min="20" max="20" width="16.83203125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="12.1640625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="10.5" style="7" customWidth="1"/>
-    <col min="25" max="25" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="6" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.83203125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" style="6" customWidth="1"/>
     <col min="30" max="30" width="9" style="6" customWidth="1"/>
-    <col min="31" max="31" width="10.5" style="6" customWidth="1"/>
-    <col min="32" max="32" width="14.33203125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="12.1640625" style="6" customWidth="1"/>
-    <col min="34" max="34" width="11.5" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.1640625" style="6"/>
+    <col min="31" max="31" width="10.42578125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" style="6" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="12" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>776</v>
       </c>
@@ -4069,64 +3961,64 @@
         <v>778</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>847</v>
+        <v>811</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>846</v>
+        <v>779</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>845</v>
+        <v>780</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>844</v>
+        <v>781</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>843</v>
+        <v>805</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>782</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>842</v>
+        <v>783</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>784</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>841</v>
+        <v>785</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>786</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>839</v>
+        <v>787</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>837</v>
+        <v>788</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>836</v>
+        <v>789</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>791</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>834</v>
+        <v>807</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>832</v>
+        <v>792</v>
       </c>
       <c r="X1" s="10" t="s">
         <v>793</v>
@@ -4135,37 +4027,37 @@
         <v>794</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>831</v>
+        <v>795</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>830</v>
+        <v>796</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>829</v>
+        <v>797</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>828</v>
+        <v>798</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>827</v>
+        <v>800</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="AH1" s="15" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4272,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -4379,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -4486,7 +4378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -4593,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -4700,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -4807,7 +4699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
@@ -4914,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -5021,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
@@ -5128,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>88</v>
       </c>
@@ -5235,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>87</v>
       </c>
@@ -5342,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
@@ -5449,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
@@ -5556,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>119</v>
       </c>
@@ -5663,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>125</v>
       </c>
@@ -5770,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>132</v>
       </c>
@@ -5877,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
@@ -5984,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
@@ -6091,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -6198,7 +6090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>152</v>
       </c>
@@ -6305,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
@@ -6412,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>105</v>
       </c>
@@ -6519,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>168</v>
       </c>
@@ -6626,7 +6518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>80</v>
       </c>
@@ -6733,7 +6625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
@@ -6840,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
@@ -6947,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>125</v>
       </c>
@@ -7054,7 +6946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>132</v>
       </c>
@@ -7161,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -7268,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
@@ -7375,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>111</v>
       </c>
@@ -7482,7 +7374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -7589,7 +7481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>55</v>
       </c>
@@ -7696,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>211</v>
       </c>
@@ -7803,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>231</v>
       </c>
@@ -7910,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>140</v>
       </c>
@@ -8017,7 +7909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>93</v>
       </c>
@@ -8124,7 +8016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
@@ -8231,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
@@ -8338,7 +8230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>168</v>
       </c>
@@ -8445,7 +8337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>55</v>
       </c>
@@ -8552,7 +8444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>236</v>
       </c>
@@ -8659,7 +8551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>91</v>
       </c>
@@ -8766,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
@@ -8873,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>213</v>
       </c>
@@ -8980,7 +8872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>1</v>
       </c>
@@ -9087,7 +8979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>236</v>
       </c>
@@ -9194,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>202</v>
       </c>
@@ -9301,7 +9193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>211</v>
       </c>
@@ -9408,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>202</v>
       </c>
@@ -9515,7 +9407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>257</v>
       </c>
@@ -9622,7 +9514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>275</v>
       </c>
@@ -9729,7 +9621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>9</v>
       </c>
@@ -9836,7 +9728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>168</v>
       </c>
@@ -9943,7 +9835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>265</v>
       </c>
@@ -10050,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>43</v>
       </c>
@@ -10157,7 +10049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
@@ -10264,7 +10156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -10371,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
@@ -10478,7 +10370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>243</v>
       </c>
@@ -10585,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>31</v>
       </c>
@@ -10692,7 +10584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>9</v>
       </c>
@@ -10799,7 +10691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>105</v>
       </c>
@@ -10906,7 +10798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>213</v>
       </c>
@@ -11013,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>201</v>
       </c>
@@ -11120,7 +11012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>74</v>
       </c>
@@ -11227,7 +11119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>93</v>
       </c>
@@ -11334,7 +11226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>88</v>
       </c>
@@ -11441,7 +11333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>65</v>
       </c>
@@ -11548,7 +11440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>81</v>
       </c>
@@ -11655,7 +11547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>320</v>
       </c>
@@ -11762,7 +11654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>1</v>
       </c>
@@ -11869,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>119</v>
       </c>
@@ -11976,7 +11868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>168</v>
       </c>
@@ -12083,7 +11975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>14</v>
       </c>
@@ -12190,7 +12082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>81</v>
       </c>
@@ -12297,7 +12189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>320</v>
       </c>
@@ -12404,7 +12296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>15</v>
       </c>
@@ -12511,7 +12403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>50</v>
       </c>
@@ -12618,7 +12510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>15</v>
       </c>
@@ -12725,7 +12617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>35</v>
       </c>
@@ -12832,7 +12724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>35</v>
       </c>
@@ -12939,7 +12831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>81</v>
       </c>
@@ -13046,7 +12938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>213</v>
       </c>
@@ -13153,7 +13045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>111</v>
       </c>
@@ -13260,7 +13152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>228</v>
       </c>
@@ -13367,7 +13259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>15</v>
       </c>
@@ -13474,7 +13366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>275</v>
       </c>
@@ -13581,7 +13473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>236</v>
       </c>
@@ -13688,7 +13580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>265</v>
       </c>
@@ -13795,7 +13687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>231</v>
       </c>
@@ -13902,7 +13794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1</v>
       </c>
@@ -14009,7 +13901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>81</v>
       </c>
@@ -14116,7 +14008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>81</v>
       </c>
@@ -14223,7 +14115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>14</v>
       </c>
@@ -14330,7 +14222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>168</v>
       </c>
@@ -14437,7 +14329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>35</v>
       </c>
@@ -14544,7 +14436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>152</v>
       </c>
@@ -14651,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>119</v>
       </c>
@@ -14758,7 +14650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>168</v>
       </c>
@@ -14865,7 +14757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>1</v>
       </c>
@@ -14972,7 +14864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>14</v>
       </c>
@@ -15079,7 +14971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>81</v>
       </c>
@@ -15186,7 +15078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>9</v>
       </c>
@@ -15293,7 +15185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>275</v>
       </c>
@@ -15400,7 +15292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>213</v>
       </c>
@@ -15507,7 +15399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>228</v>
       </c>
@@ -15614,7 +15506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>81</v>
       </c>
@@ -15721,7 +15613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>81</v>
       </c>
@@ -15828,7 +15720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>14</v>
       </c>
@@ -15935,7 +15827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>168</v>
       </c>
@@ -16042,7 +15934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>81</v>
       </c>
@@ -16149,7 +16041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>55</v>
       </c>
@@ -16256,7 +16148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>84</v>
       </c>
@@ -16363,7 +16255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>178</v>
       </c>
@@ -16470,7 +16362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>168</v>
       </c>
@@ -16577,7 +16469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>35</v>
       </c>
@@ -16684,7 +16576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>152</v>
       </c>
@@ -16791,7 +16683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
@@ -16898,7 +16790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>81</v>
       </c>
@@ -17005,7 +16897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>320</v>
       </c>
@@ -17112,7 +17004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>9</v>
       </c>
@@ -17219,7 +17111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>165</v>
       </c>
@@ -17326,7 +17218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>15</v>
       </c>
@@ -17433,7 +17325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>275</v>
       </c>
@@ -17540,7 +17432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>1</v>
       </c>
@@ -17647,7 +17539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>132</v>
       </c>
@@ -17754,7 +17646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>73</v>
       </c>
@@ -17861,7 +17753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>119</v>
       </c>
@@ -17968,7 +17860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>152</v>
       </c>
@@ -18075,7 +17967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>35</v>
       </c>
@@ -18182,7 +18074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>168</v>
       </c>
@@ -18289,7 +18181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>35</v>
       </c>
@@ -18396,7 +18288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>35</v>
       </c>
@@ -18503,7 +18395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>81</v>
       </c>
@@ -18610,7 +18502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>55</v>
       </c>
@@ -18717,7 +18609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>84</v>
       </c>
@@ -18824,7 +18716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>73</v>
       </c>
@@ -18931,7 +18823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>178</v>
       </c>
@@ -19038,7 +18930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>9</v>
       </c>
@@ -19145,7 +19037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>165</v>
       </c>
@@ -19252,7 +19144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>105</v>
       </c>
@@ -19359,7 +19251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>86</v>
       </c>
@@ -19466,7 +19358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>86</v>
       </c>
@@ -19573,7 +19465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>55</v>
       </c>
@@ -19680,7 +19572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>9</v>
       </c>
@@ -19787,7 +19679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>165</v>
       </c>
@@ -19894,7 +19786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>320</v>
       </c>
@@ -20001,7 +19893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>213</v>
       </c>
@@ -20108,7 +20000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>111</v>
       </c>
@@ -20215,7 +20107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>228</v>
       </c>
@@ -20322,7 +20214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>211</v>
       </c>
@@ -20429,7 +20321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>228</v>
       </c>
@@ -20536,7 +20428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>65</v>
       </c>
@@ -20643,7 +20535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>15</v>
       </c>
@@ -20750,7 +20642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>275</v>
       </c>
@@ -20857,7 +20749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>1</v>
       </c>
@@ -20964,7 +20856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>132</v>
       </c>
@@ -21071,7 +20963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>73</v>
       </c>
@@ -21178,7 +21070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>43</v>
       </c>
@@ -21285,7 +21177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>178</v>
       </c>
@@ -21392,7 +21284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>35</v>
       </c>
@@ -21499,7 +21391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>152</v>
       </c>
@@ -21606,7 +21498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>119</v>
       </c>
@@ -21713,7 +21605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>168</v>
       </c>
@@ -21820,7 +21712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>81</v>
       </c>
@@ -21927,7 +21819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>14</v>
       </c>
@@ -22034,7 +21926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>55</v>
       </c>
@@ -22141,7 +22033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>84</v>
       </c>
@@ -22248,7 +22140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>178</v>
       </c>
@@ -22355,7 +22247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>14</v>
       </c>
@@ -22462,7 +22354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>9</v>
       </c>
@@ -22569,7 +22461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>65</v>
       </c>
@@ -22676,7 +22568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>37</v>
       </c>
@@ -22783,7 +22675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>159</v>
       </c>
@@ -22890,7 +22782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>96</v>
       </c>
@@ -22997,7 +22889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>14</v>
       </c>
@@ -23104,7 +22996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>81</v>
       </c>
@@ -23211,7 +23103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>55</v>
       </c>
@@ -23318,7 +23210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>84</v>
       </c>
@@ -23425,7 +23317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>178</v>
       </c>
@@ -23532,7 +23424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>81</v>
       </c>
@@ -23639,7 +23531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>168</v>
       </c>
@@ -23746,7 +23638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>35</v>
       </c>
@@ -23853,7 +23745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>168</v>
       </c>
@@ -23960,7 +23852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>14</v>
       </c>
@@ -24067,7 +23959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>9</v>
       </c>
@@ -24174,7 +24066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>275</v>
       </c>
@@ -24281,7 +24173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>1</v>
       </c>
@@ -24388,7 +24280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>105</v>
       </c>
@@ -24495,7 +24387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>111</v>
       </c>
@@ -24602,7 +24494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>211</v>
       </c>
@@ -24709,7 +24601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>81</v>
       </c>
@@ -24816,7 +24708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>55</v>
       </c>
@@ -24923,7 +24815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>84</v>
       </c>
@@ -25030,7 +24922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>178</v>
       </c>
@@ -25137,7 +25029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>7</v>
       </c>
@@ -25244,7 +25136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>257</v>
       </c>
@@ -25351,7 +25243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>65</v>
       </c>
@@ -25458,7 +25350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>9</v>
       </c>
@@ -25565,7 +25457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>119</v>
       </c>
@@ -25672,7 +25564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>168</v>
       </c>
@@ -25779,7 +25671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>14</v>
       </c>
@@ -25886,7 +25778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>81</v>
       </c>
@@ -25993,7 +25885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>168</v>
       </c>
@@ -26100,7 +25992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>81</v>
       </c>
@@ -26207,7 +26099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>55</v>
       </c>
@@ -26314,7 +26206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>15</v>
       </c>
@@ -26421,7 +26313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>275</v>
       </c>
@@ -26528,7 +26420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>1</v>
       </c>
@@ -26635,7 +26527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>132</v>
       </c>
@@ -26742,7 +26634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>168</v>
       </c>
@@ -26849,7 +26741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>81</v>
       </c>
@@ -26956,7 +26848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>55</v>
       </c>
@@ -27063,7 +26955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>84</v>
       </c>
@@ -27170,7 +27062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>178</v>
       </c>
@@ -27277,7 +27169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>7</v>
       </c>
@@ -27384,7 +27276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>125</v>
       </c>
@@ -27491,7 +27383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>86</v>
       </c>
@@ -27598,7 +27490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>105</v>
       </c>
@@ -27705,7 +27597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>168</v>
       </c>
@@ -27812,7 +27704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>81</v>
       </c>
@@ -27919,7 +27811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>14</v>
       </c>
@@ -28026,7 +27918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>168</v>
       </c>
@@ -28133,7 +28025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>81</v>
       </c>
@@ -28240,7 +28132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>55</v>
       </c>
@@ -28347,7 +28239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>84</v>
       </c>
@@ -28454,7 +28346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>178</v>
       </c>
@@ -28561,7 +28453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>7</v>
       </c>
@@ -28668,7 +28560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>213</v>
       </c>
@@ -28775,7 +28667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>111</v>
       </c>
@@ -28882,7 +28774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>15</v>
       </c>
@@ -28989,7 +28881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>275</v>
       </c>
@@ -29096,7 +28988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>1</v>
       </c>
@@ -29203,7 +29095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>15</v>
       </c>
@@ -29310,7 +29202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>275</v>
       </c>
@@ -29417,7 +29309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>1</v>
       </c>
@@ -29524,7 +29416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>105</v>
       </c>
@@ -29631,7 +29523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>165</v>
       </c>
@@ -29738,7 +29630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>9</v>
       </c>
@@ -29845,7 +29737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>168</v>
       </c>
@@ -29952,7 +29844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>165</v>
       </c>
@@ -30059,7 +29951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>55</v>
       </c>
@@ -30166,7 +30058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>165</v>
       </c>
@@ -30273,7 +30165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>81</v>
       </c>
@@ -30380,7 +30272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>9</v>
       </c>
@@ -30487,7 +30379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>165</v>
       </c>
@@ -30594,7 +30486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>105</v>
       </c>
@@ -30701,7 +30593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>37</v>
       </c>
@@ -30808,7 +30700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>35</v>
       </c>
@@ -30915,7 +30807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>33</v>
       </c>
@@ -31022,7 +30914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>9</v>
       </c>
@@ -31129,7 +31021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>224</v>
       </c>
@@ -31236,7 +31128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>1</v>
       </c>
@@ -31343,7 +31235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>81</v>
       </c>
@@ -31450,7 +31342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>91</v>
       </c>
@@ -31557,7 +31449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>111</v>
       </c>
@@ -31664,7 +31556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>178</v>
       </c>
@@ -31771,7 +31663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>168</v>
       </c>
@@ -31878,7 +31770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>65</v>
       </c>
@@ -31985,7 +31877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>60</v>
       </c>
@@ -32092,7 +31984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>91</v>
       </c>
@@ -32199,7 +32091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>111</v>
       </c>
@@ -32306,7 +32198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>228</v>
       </c>
@@ -32413,7 +32305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>165</v>
       </c>
@@ -32520,7 +32412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>81</v>
       </c>
@@ -32627,7 +32519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>15</v>
       </c>
@@ -32734,7 +32626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>236</v>
       </c>
@@ -32841,7 +32733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>257</v>
       </c>
@@ -32948,7 +32840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>165</v>
       </c>
@@ -33055,7 +32947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>320</v>
       </c>
@@ -33162,7 +33054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>105</v>
       </c>
@@ -33269,7 +33161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>105</v>
       </c>
@@ -33376,7 +33268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>15</v>
       </c>
@@ -33483,7 +33375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>165</v>
       </c>
@@ -33590,7 +33482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>275</v>
       </c>
@@ -33697,7 +33589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>228</v>
       </c>
@@ -33804,7 +33696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>152</v>
       </c>
@@ -33911,7 +33803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>172</v>
       </c>
@@ -34018,7 +33910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>65</v>
       </c>
@@ -34125,7 +34017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>73</v>
       </c>
@@ -34232,7 +34124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>84</v>
       </c>
@@ -34339,7 +34231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>228</v>
       </c>
@@ -34446,7 +34338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>55</v>
       </c>
@@ -34553,7 +34445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>55</v>
       </c>
@@ -34660,7 +34552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>96</v>
       </c>
@@ -34767,7 +34659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>211</v>
       </c>
@@ -34874,7 +34766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>152</v>
       </c>
@@ -34981,7 +34873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>172</v>
       </c>
@@ -35088,7 +34980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>15</v>
       </c>
@@ -35195,7 +35087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>60</v>
       </c>
@@ -35302,7 +35194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>86</v>
       </c>
@@ -35409,7 +35301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>257</v>
       </c>
@@ -35516,7 +35408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>132</v>
       </c>
@@ -35623,7 +35515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>96</v>
       </c>
@@ -35730,7 +35622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>63</v>
       </c>
@@ -35837,7 +35729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>152</v>
       </c>
@@ -35944,7 +35836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>320</v>
       </c>
@@ -36051,7 +35943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>265</v>
       </c>
@@ -36158,7 +36050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>35</v>
       </c>
@@ -36265,7 +36157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>91</v>
       </c>
@@ -36372,7 +36264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>224</v>
       </c>
@@ -36479,7 +36371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>4</v>
       </c>
@@ -36586,7 +36478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>35</v>
       </c>
@@ -36693,7 +36585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>211</v>
       </c>
@@ -36800,7 +36692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>178</v>
       </c>
@@ -36907,7 +36799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>81</v>
       </c>
@@ -37014,7 +36906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>14</v>
       </c>
@@ -37121,7 +37013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>168</v>
       </c>
@@ -37228,7 +37120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>80</v>
       </c>
@@ -37335,7 +37227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>54</v>
       </c>
@@ -37442,7 +37334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>14</v>
       </c>
@@ -37549,7 +37441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>257</v>
       </c>
@@ -37656,7 +37548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>132</v>
       </c>
@@ -37763,7 +37655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>111</v>
       </c>
@@ -37870,7 +37762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>105</v>
       </c>
@@ -37977,7 +37869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>275</v>
       </c>
@@ -38084,7 +37976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>81</v>
       </c>
@@ -38191,7 +38083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>165</v>
       </c>
@@ -38298,7 +38190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>96</v>
       </c>
@@ -38405,7 +38297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>320</v>
       </c>
@@ -38512,7 +38404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>84</v>
       </c>
@@ -38619,7 +38511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>211</v>
       </c>
@@ -38726,7 +38618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>168</v>
       </c>
@@ -38843,234 +38735,234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>776</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>777</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>778</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>779</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>780</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>781</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>782</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>783</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>784</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>785</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>786</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>787</v>
       </c>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>788</v>
       </c>
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>789</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>790</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>791</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>792</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>793</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>794</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>795</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>796</v>
       </c>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>797</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>798</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>799</v>
       </c>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>800</v>
       </c>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>801</v>
       </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>802</v>
       </c>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>803</v>
       </c>
@@ -39086,79 +38978,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="118.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
